--- a/man/tables/category_BySubject_EXAMPLE_STUDY_Cohort_A_30OCT2020.xlsx
+++ b/man/tables/category_BySubject_EXAMPLE_STUDY_Cohort_A_30OCT2020.xlsx
@@ -20,25 +20,25 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=2)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=2)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66.67</t>
+    <t xml:space="preserve">100.00</t>
   </si>
   <si>
     <t xml:space="preserve">ENDOCRINE DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33.33</t>
+    <t xml:space="preserve"> 50.00</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
   </si>
   <si>
-    <t xml:space="preserve">100.00</t>
+    <t xml:space="preserve">150.00</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>

--- a/man/tables/category_BySubject_EXAMPLE_STUDY_Cohort_A_30OCT2020.xlsx
+++ b/man/tables/category_BySubject_EXAMPLE_STUDY_Cohort_A_30OCT2020.xlsx
@@ -20,37 +20,37 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=2)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=2)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
   </si>
   <si>
+    <t xml:space="preserve"> 66.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDOCRINE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EYE DISORDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">100.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENDOCRINE DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EYE DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASTROINTESTINAL DISORDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.00</t>
   </si>
   <si>
     <t xml:space="preserve">GENERAL DISORDERS AND ADMINISTRATION SITE CONDITIONS</t>
